--- a/BalanceSheet/URI_bal.xlsx
+++ b/BalanceSheet/URI_bal.xlsx
@@ -507,19 +507,19 @@
         <v>114000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-17000000.0</v>
+        <v>125000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>108000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>7000000.0</v>
+        <v>107000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5000000.0</v>
+        <v>115000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>9000000.0</v>
+        <v>120000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>130000000.0</v>
@@ -1593,19 +1593,19 @@
         <v>562000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-78000000.0</v>
+        <v>466000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>223000000.0</v>
+        <v>541000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-168000000.0</v>
+        <v>316000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>33000000.0</v>
+        <v>484000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>-387000000.0</v>
+        <v>454000000.0</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>839000000.0</v>
@@ -2425,19 +2425,19 @@
         <v>1773000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>-55000000.0</v>
+        <v>1768000000.0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-4000000.0</v>
+        <v>1818000000.0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-63000000.0</v>
+        <v>1820000000.0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1000000.0</v>
+        <v>1878000000.0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>87000000.0</v>
+        <v>1887000000.0</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1800000000.0</v>
